--- a/workbooks/results_2weeks_2.xlsx
+++ b/workbooks/results_2weeks_2.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="2038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="2053">
   <si>
     <t>timestamp</t>
   </si>
@@ -6127,6 +6128,51 @@
   </si>
   <si>
     <t>2022-11-14 02:50:00</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>yhat_lower</t>
+  </si>
+  <si>
+    <t>yhat_upper</t>
+  </si>
+  <si>
+    <t>trend_lower</t>
+  </si>
+  <si>
+    <t>trend_upper</t>
+  </si>
+  <si>
+    <t>additive_terms</t>
+  </si>
+  <si>
+    <t>additive_terms_lower</t>
+  </si>
+  <si>
+    <t>additive_terms_upper</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>daily_lower</t>
+  </si>
+  <si>
+    <t>daily_upper</t>
+  </si>
+  <si>
+    <t>multiplicative_terms</t>
+  </si>
+  <si>
+    <t>multiplicative_terms_lower</t>
+  </si>
+  <si>
+    <t>multiplicative_terms_upper</t>
+  </si>
+  <si>
+    <t>Prophet</t>
   </si>
   <si>
     <t>Original</t>
@@ -18518,7 +18564,7 @@
                   <c:v>1.234331369400024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.278967022895813</c:v>
+                  <c:v>1.278966903686523</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.292032241821289</c:v>
@@ -18533,7 +18579,7 @@
                   <c:v>1.249918937683105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.219160795211792</c:v>
+                  <c:v>1.219160914421082</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.165838479995728</c:v>
@@ -18548,7 +18594,7 @@
                   <c:v>1.034750461578369</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.021973490715027</c:v>
+                  <c:v>1.021973371505737</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.002480268478394</c:v>
@@ -18557,7 +18603,7 @@
                   <c:v>0.960903525352478</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9052267074584961</c:v>
+                  <c:v>0.9052268266677856</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.8684501647949219</c:v>
@@ -18665,11 +18711,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
+              <c:f>Sheet3!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TimeGPT</c:v>
+                  <c:v>Prophet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18741,206 +18787,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$19</c:f>
+              <c:f>Sheet3!$Q$2:$Q$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.234331369400024</c:v>
+                  <c:v>1.403834806287664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.278967022895813</c:v>
+                  <c:v>1.390613142276629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.292032241821289</c:v>
+                  <c:v>1.374924339958222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.285122394561768</c:v>
+                  <c:v>1.357338307437232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.264092206954956</c:v>
+                  <c:v>1.338478307887931</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.249918937683105</c:v>
+                  <c:v>1.319001587446331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.219160795211792</c:v>
+                  <c:v>1.299579150060239</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.165838479995728</c:v>
+                  <c:v>1.280875290441229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.114395618438721</c:v>
+                  <c:v>1.263527503097862</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.065578699111938</c:v>
+                  <c:v>1.248127373905514</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.034750461578369</c:v>
+                  <c:v>1.235203030322406</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.021973490715027</c:v>
+                  <c:v>1.22520367904167</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.002480268478394</c:v>
+                  <c:v>1.218486696320307</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.960903525352478</c:v>
+                  <c:v>1.215307658329586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9052267074584961</c:v>
+                  <c:v>1.215813609631774</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8684501647949219</c:v>
+                  <c:v>1.220039769044262</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8500570058822632</c:v>
+                  <c:v>1.227909767618227</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8567624688148499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Original</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$B$2:$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>2022-11-14 00:00:00</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2022-11-14 00:10:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2022-11-14 00:20:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022-11-14 00:30:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2022-11-14 00:40:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2022-11-14 00:50:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2022-11-14 01:00:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2022-11-14 01:10:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2022-11-14 01:20:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2022-11-14 01:30:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2022-11-14 01:40:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2022-11-14 01:50:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022-11-14 02:00:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2022-11-14 02:10:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2022-11-14 02:20:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2022-11-14 02:30:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2022-11-14 02:40:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2022-11-14 02:50:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$D$2:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1.246428</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.32069</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.639285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.186207</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.768965</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.828571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.893103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.964286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.682759</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.971429</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.693103</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.946428</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.889655</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.327586</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.546428</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.289655</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.371428</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.693103</c:v>
+                  <c:v>1.239239405724156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19008,6 +18911,523 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TimeGPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2022-11-14 00:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022-11-14 00:10:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022-11-14 00:20:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022-11-14 00:30:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022-11-14 00:40:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022-11-14 00:50:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-11-14 01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022-11-14 01:10:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022-11-14 01:20:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022-11-14 01:30:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022-11-14 01:40:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022-11-14 01:50:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-11-14 02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-11-14 02:10:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-11-14 02:20:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-11-14 02:30:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-11-14 02:40:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-11-14 02:50:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.234331369400024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.278966903686523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.292032241821289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.285122394561768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.264092206954956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.249918937683105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.219160914421082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.165838479995728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.114395618438721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.065578699111938</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.034750461578369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.021973371505737</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.002480268478394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.960903525352478</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9052268266677856</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8684501647949219</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8500570058822632</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8567624688148499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2022-11-14 00:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022-11-14 00:10:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022-11-14 00:20:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022-11-14 00:30:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022-11-14 00:40:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022-11-14 00:50:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-11-14 01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022-11-14 01:10:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022-11-14 01:20:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022-11-14 01:30:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022-11-14 01:40:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022-11-14 01:50:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-11-14 02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-11-14 02:10:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-11-14 02:20:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-11-14 02:30:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-11-14 02:40:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-11-14 02:50:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.246428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.32069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.639285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.186207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.768965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.828571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.893103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.964286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.682759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.971429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.693103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.946428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.889655</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.327586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.546428</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.289655</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.371428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.693103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prophet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2022-11-14 00:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022-11-14 00:10:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022-11-14 00:20:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022-11-14 00:30:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022-11-14 00:40:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022-11-14 00:50:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-11-14 01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022-11-14 01:10:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022-11-14 01:20:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022-11-14 01:30:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022-11-14 01:40:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022-11-14 01:50:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-11-14 02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-11-14 02:10:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-11-14 02:20:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-11-14 02:30:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-11-14 02:40:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-11-14 02:50:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$S$2:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.403834806287664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.390613142276629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.374924339958222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.357338307437232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.338478307887931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.319001587446331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.299579150060239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.280875290441229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.263527503097862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.248127373905514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.235203030322406</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.22520367904167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.218486696320307</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.215307658329586</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.215813609631774</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.220039769044262</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.227909767618227</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.239239405724156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>timestamp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>wind_speed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19097,6 +19517,41 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -41647,7 +42102,7 @@
         <v>2020</v>
       </c>
       <c r="C3">
-        <v>1.278967022895813</v>
+        <v>1.278966903686523</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -41702,7 +42157,7 @@
         <v>2025</v>
       </c>
       <c r="C8">
-        <v>1.219160795211792</v>
+        <v>1.219160914421082</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -41757,7 +42212,7 @@
         <v>2030</v>
       </c>
       <c r="C13">
-        <v>1.021973490715027</v>
+        <v>1.021973371505737</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -41790,7 +42245,7 @@
         <v>2033</v>
       </c>
       <c r="C16">
-        <v>0.9052267074584961</v>
+        <v>0.9052268266677856</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -41834,24 +42289,1087 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C2">
+        <v>1.776532302755726</v>
+      </c>
+      <c r="D2">
+        <v>-0.0594199735176012</v>
+      </c>
+      <c r="E2">
+        <v>2.835003246727598</v>
+      </c>
+      <c r="F2">
+        <v>1.776532302755726</v>
+      </c>
+      <c r="G2">
+        <v>1.776532302755726</v>
+      </c>
+      <c r="H2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="I2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="J2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="K2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="L2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="M2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.403834806287664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C3">
+        <v>1.775870942317585</v>
+      </c>
+      <c r="D3">
+        <v>-0.2658526816931114</v>
+      </c>
+      <c r="E3">
+        <v>2.94734163148106</v>
+      </c>
+      <c r="F3">
+        <v>1.775870942317585</v>
+      </c>
+      <c r="G3">
+        <v>1.775870942317585</v>
+      </c>
+      <c r="H3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="I3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="J3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="K3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="L3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="M3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.390613142276629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>2018</v>
       </c>
+      <c r="B4" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C4">
+        <v>1.775209581879444</v>
+      </c>
+      <c r="D4">
+        <v>-0.2389874755997319</v>
+      </c>
+      <c r="E4">
+        <v>2.897407336232122</v>
+      </c>
+      <c r="F4">
+        <v>1.775209581879444</v>
+      </c>
+      <c r="G4">
+        <v>1.775209581879444</v>
+      </c>
+      <c r="H4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="I4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="J4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="K4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="L4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="M4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.374924339958222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C5">
+        <v>1.774548221441303</v>
+      </c>
+      <c r="D5">
+        <v>-0.200472353856394</v>
+      </c>
+      <c r="E5">
+        <v>2.918144469005321</v>
+      </c>
+      <c r="F5">
+        <v>1.774548221441303</v>
+      </c>
+      <c r="G5">
+        <v>1.774548221441303</v>
+      </c>
+      <c r="H5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="I5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="J5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="K5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="L5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="M5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.357338307437232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C6">
+        <v>1.773886861003162</v>
+      </c>
+      <c r="D6">
+        <v>-0.1589431527544172</v>
+      </c>
+      <c r="E6">
+        <v>2.93957470841643</v>
+      </c>
+      <c r="F6">
+        <v>1.773886861003162</v>
+      </c>
+      <c r="G6">
+        <v>1.773886861003162</v>
+      </c>
+      <c r="H6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="I6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="J6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="K6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="L6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="M6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.338478307887931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C7">
+        <v>1.773225500565021</v>
+      </c>
+      <c r="D7">
+        <v>-0.1011389789437338</v>
+      </c>
+      <c r="E7">
+        <v>2.909566231441008</v>
+      </c>
+      <c r="F7">
+        <v>1.773225500565021</v>
+      </c>
+      <c r="G7">
+        <v>1.773225500565021</v>
+      </c>
+      <c r="H7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="I7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="J7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="K7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="L7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="M7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.319001587446331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C8">
+        <v>1.77256414012688</v>
+      </c>
+      <c r="D8">
+        <v>-0.1747136056482007</v>
+      </c>
+      <c r="E8">
+        <v>2.784954312584522</v>
+      </c>
+      <c r="F8">
+        <v>1.77256414012688</v>
+      </c>
+      <c r="G8">
+        <v>1.77256414012688</v>
+      </c>
+      <c r="H8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="I8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="J8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="K8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="L8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="M8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.299579150060239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C9">
+        <v>1.771902779688738</v>
+      </c>
+      <c r="D9">
+        <v>-0.2417496880888801</v>
+      </c>
+      <c r="E9">
+        <v>2.932396258251916</v>
+      </c>
+      <c r="F9">
+        <v>1.771902779688738</v>
+      </c>
+      <c r="G9">
+        <v>1.771902779688738</v>
+      </c>
+      <c r="H9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="I9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="J9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="K9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="L9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="M9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.280875290441229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C10">
+        <v>1.771241419250597</v>
+      </c>
+      <c r="D10">
+        <v>-0.1722620637261856</v>
+      </c>
+      <c r="E10">
+        <v>2.822052359389596</v>
+      </c>
+      <c r="F10">
+        <v>1.771241419250597</v>
+      </c>
+      <c r="G10">
+        <v>1.771241419250597</v>
+      </c>
+      <c r="H10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="I10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="J10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="K10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="L10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="M10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.263527503097862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C11">
+        <v>1.770580058812456</v>
+      </c>
+      <c r="D11">
+        <v>-0.2543043171102522</v>
+      </c>
+      <c r="E11">
+        <v>2.748236200081293</v>
+      </c>
+      <c r="F11">
+        <v>1.770580058812456</v>
+      </c>
+      <c r="G11">
+        <v>1.770580058812456</v>
+      </c>
+      <c r="H11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="I11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="J11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="K11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="L11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="M11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.248127373905514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C12">
+        <v>1.769918698374315</v>
+      </c>
+      <c r="D12">
+        <v>-0.2949319241012149</v>
+      </c>
+      <c r="E12">
+        <v>2.666344988850565</v>
+      </c>
+      <c r="F12">
+        <v>1.769918698374315</v>
+      </c>
+      <c r="G12">
+        <v>1.769918698374315</v>
+      </c>
+      <c r="H12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="I12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="J12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="K12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="L12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="M12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.235203030322406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C13">
+        <v>1.769257337936174</v>
+      </c>
+      <c r="D13">
+        <v>-0.3324915654560305</v>
+      </c>
+      <c r="E13">
+        <v>2.805139311293618</v>
+      </c>
+      <c r="F13">
+        <v>1.769257337936174</v>
+      </c>
+      <c r="G13">
+        <v>1.769257337936174</v>
+      </c>
+      <c r="H13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="I13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="J13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="K13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="L13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="M13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.22520367904167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C14">
+        <v>1.768595977498033</v>
+      </c>
+      <c r="D14">
+        <v>-0.3192711493545639</v>
+      </c>
+      <c r="E14">
+        <v>2.724083432609943</v>
+      </c>
+      <c r="F14">
+        <v>1.768595977498033</v>
+      </c>
+      <c r="G14">
+        <v>1.768595977498033</v>
+      </c>
+      <c r="H14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="I14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="J14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="K14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="L14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="M14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.218486696320307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C15">
+        <v>1.767934617059892</v>
+      </c>
+      <c r="D15">
+        <v>-0.2868699051781128</v>
+      </c>
+      <c r="E15">
+        <v>2.807511640017053</v>
+      </c>
+      <c r="F15">
+        <v>1.767934617059892</v>
+      </c>
+      <c r="G15">
+        <v>1.767934617059892</v>
+      </c>
+      <c r="H15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="I15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="J15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="K15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="L15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="M15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.215307658329586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C16">
+        <v>1.767273256621751</v>
+      </c>
+      <c r="D16">
+        <v>-0.3761133634143335</v>
+      </c>
+      <c r="E16">
+        <v>2.645604822736803</v>
+      </c>
+      <c r="F16">
+        <v>1.767273256621751</v>
+      </c>
+      <c r="G16">
+        <v>1.767273256621751</v>
+      </c>
+      <c r="H16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="I16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="J16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="K16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="L16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="M16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.215813609631774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C17">
+        <v>1.76661189618361</v>
+      </c>
+      <c r="D17">
+        <v>-0.3206699461788587</v>
+      </c>
+      <c r="E17">
+        <v>2.636232238407492</v>
+      </c>
+      <c r="F17">
+        <v>1.76661189618361</v>
+      </c>
+      <c r="G17">
+        <v>1.76661189618361</v>
+      </c>
+      <c r="H17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="I17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="J17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="K17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="L17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="M17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.220039769044262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C18">
+        <v>1.765950535745469</v>
+      </c>
+      <c r="D18">
+        <v>-0.3022496561731177</v>
+      </c>
+      <c r="E18">
+        <v>2.735182611388796</v>
+      </c>
+      <c r="F18">
+        <v>1.765950535745469</v>
+      </c>
+      <c r="G18">
+        <v>1.765950535745469</v>
+      </c>
+      <c r="H18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="I18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="J18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="K18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="L18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="M18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.227909767618227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C19">
+        <v>1.765289175307327</v>
+      </c>
+      <c r="D19">
+        <v>-0.3512815771171867</v>
+      </c>
+      <c r="E19">
+        <v>2.729857154066903</v>
+      </c>
+      <c r="F19">
+        <v>1.765289175307327</v>
+      </c>
+      <c r="G19">
+        <v>1.765289175307327</v>
+      </c>
+      <c r="H19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="I19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="J19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="K19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="L19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="M19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.239239405724156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2018</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -41864,8 +43382,53 @@
       <c r="D2">
         <v>1.246428</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>1.776532302755726</v>
+      </c>
+      <c r="F2">
+        <v>-0.0594199735176012</v>
+      </c>
+      <c r="G2">
+        <v>2.835003246727598</v>
+      </c>
+      <c r="H2">
+        <v>1.776532302755726</v>
+      </c>
+      <c r="I2">
+        <v>1.776532302755726</v>
+      </c>
+      <c r="J2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="K2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="L2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="M2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="N2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="O2">
+        <v>-0.3726974964680624</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.403834806287664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -41873,13 +43436,58 @@
         <v>2020</v>
       </c>
       <c r="C3">
-        <v>1.278967022895813</v>
+        <v>1.278966903686523</v>
       </c>
       <c r="D3">
         <v>1.32069</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>1.775870942317585</v>
+      </c>
+      <c r="F3">
+        <v>-0.2658526816931114</v>
+      </c>
+      <c r="G3">
+        <v>2.94734163148106</v>
+      </c>
+      <c r="H3">
+        <v>1.775870942317585</v>
+      </c>
+      <c r="I3">
+        <v>1.775870942317585</v>
+      </c>
+      <c r="J3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="K3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="L3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="M3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="N3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="O3">
+        <v>-0.385257800040956</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.390613142276629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -41892,8 +43500,53 @@
       <c r="D4">
         <v>1.639285</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1.775209581879444</v>
+      </c>
+      <c r="F4">
+        <v>-0.2389874755997319</v>
+      </c>
+      <c r="G4">
+        <v>2.897407336232122</v>
+      </c>
+      <c r="H4">
+        <v>1.775209581879444</v>
+      </c>
+      <c r="I4">
+        <v>1.775209581879444</v>
+      </c>
+      <c r="J4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="K4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="L4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="M4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="N4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="O4">
+        <v>-0.4002852419212217</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.374924339958222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -41906,8 +43559,53 @@
       <c r="D5">
         <v>2.186207</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1.774548221441303</v>
+      </c>
+      <c r="F5">
+        <v>-0.200472353856394</v>
+      </c>
+      <c r="G5">
+        <v>2.918144469005321</v>
+      </c>
+      <c r="H5">
+        <v>1.774548221441303</v>
+      </c>
+      <c r="I5">
+        <v>1.774548221441303</v>
+      </c>
+      <c r="J5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="K5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="L5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="M5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="N5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="O5">
+        <v>-0.417209914004071</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.357338307437232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -41920,8 +43618,53 @@
       <c r="D6">
         <v>1.768965</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1.773886861003162</v>
+      </c>
+      <c r="F6">
+        <v>-0.1589431527544172</v>
+      </c>
+      <c r="G6">
+        <v>2.93957470841643</v>
+      </c>
+      <c r="H6">
+        <v>1.773886861003162</v>
+      </c>
+      <c r="I6">
+        <v>1.773886861003162</v>
+      </c>
+      <c r="J6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="K6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="L6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="M6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="N6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="O6">
+        <v>-0.435408553115231</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.338478307887931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -41934,8 +43677,53 @@
       <c r="D7">
         <v>1.828571</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>1.773225500565021</v>
+      </c>
+      <c r="F7">
+        <v>-0.1011389789437338</v>
+      </c>
+      <c r="G7">
+        <v>2.909566231441008</v>
+      </c>
+      <c r="H7">
+        <v>1.773225500565021</v>
+      </c>
+      <c r="I7">
+        <v>1.773225500565021</v>
+      </c>
+      <c r="J7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="K7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="L7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="M7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="N7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="O7">
+        <v>-0.4542239131186899</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.319001587446331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -41943,13 +43731,58 @@
         <v>2025</v>
       </c>
       <c r="C8">
-        <v>1.219160795211792</v>
+        <v>1.219160914421082</v>
       </c>
       <c r="D8">
         <v>1.893103</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1.77256414012688</v>
+      </c>
+      <c r="F8">
+        <v>-0.1747136056482007</v>
+      </c>
+      <c r="G8">
+        <v>2.784954312584522</v>
+      </c>
+      <c r="H8">
+        <v>1.77256414012688</v>
+      </c>
+      <c r="I8">
+        <v>1.77256414012688</v>
+      </c>
+      <c r="J8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="K8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="L8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="M8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="N8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="O8">
+        <v>-0.4729849900666405</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.299579150060239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -41962,8 +43795,53 @@
       <c r="D9">
         <v>1.964286</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1.771902779688738</v>
+      </c>
+      <c r="F9">
+        <v>-0.2417496880888801</v>
+      </c>
+      <c r="G9">
+        <v>2.932396258251916</v>
+      </c>
+      <c r="H9">
+        <v>1.771902779688738</v>
+      </c>
+      <c r="I9">
+        <v>1.771902779688738</v>
+      </c>
+      <c r="J9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="K9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="L9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="M9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="N9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="O9">
+        <v>-0.491027489247509</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.280875290441229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -41976,8 +43854,53 @@
       <c r="D10">
         <v>1.682759</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1.771241419250597</v>
+      </c>
+      <c r="F10">
+        <v>-0.1722620637261856</v>
+      </c>
+      <c r="G10">
+        <v>2.822052359389596</v>
+      </c>
+      <c r="H10">
+        <v>1.771241419250597</v>
+      </c>
+      <c r="I10">
+        <v>1.771241419250597</v>
+      </c>
+      <c r="J10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="K10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="L10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="M10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="N10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="O10">
+        <v>-0.5077139161527358</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.263527503097862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -41990,8 +43913,53 @@
       <c r="D11">
         <v>1.971429</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1.770580058812456</v>
+      </c>
+      <c r="F11">
+        <v>-0.2543043171102522</v>
+      </c>
+      <c r="G11">
+        <v>2.748236200081293</v>
+      </c>
+      <c r="H11">
+        <v>1.770580058812456</v>
+      </c>
+      <c r="I11">
+        <v>1.770580058812456</v>
+      </c>
+      <c r="J11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="K11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="L11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="M11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="N11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="O11">
+        <v>-0.5224526849069421</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.248127373905514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -42004,8 +43972,53 @@
       <c r="D12">
         <v>1.693103</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>1.769918698374315</v>
+      </c>
+      <c r="F12">
+        <v>-0.2949319241012149</v>
+      </c>
+      <c r="G12">
+        <v>2.666344988850565</v>
+      </c>
+      <c r="H12">
+        <v>1.769918698374315</v>
+      </c>
+      <c r="I12">
+        <v>1.769918698374315</v>
+      </c>
+      <c r="J12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="K12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="L12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="M12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="N12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="O12">
+        <v>-0.5347156680519091</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.235203030322406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -42013,13 +44026,58 @@
         <v>2030</v>
       </c>
       <c r="C13">
-        <v>1.021973490715027</v>
+        <v>1.021973371505737</v>
       </c>
       <c r="D13">
         <v>1.946428</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1.769257337936174</v>
+      </c>
+      <c r="F13">
+        <v>-0.3324915654560305</v>
+      </c>
+      <c r="G13">
+        <v>2.805139311293618</v>
+      </c>
+      <c r="H13">
+        <v>1.769257337936174</v>
+      </c>
+      <c r="I13">
+        <v>1.769257337936174</v>
+      </c>
+      <c r="J13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="K13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="L13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="M13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="N13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="O13">
+        <v>-0.5440536588945044</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.22520367904167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -42032,8 +44090,53 @@
       <c r="D14">
         <v>1.889655</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1.768595977498033</v>
+      </c>
+      <c r="F14">
+        <v>-0.3192711493545639</v>
+      </c>
+      <c r="G14">
+        <v>2.724083432609943</v>
+      </c>
+      <c r="H14">
+        <v>1.768595977498033</v>
+      </c>
+      <c r="I14">
+        <v>1.768595977498033</v>
+      </c>
+      <c r="J14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="K14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="L14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="M14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="N14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="O14">
+        <v>-0.5501092811777256</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.218486696320307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -42046,8 +44149,53 @@
       <c r="D15">
         <v>1.327586</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1.767934617059892</v>
+      </c>
+      <c r="F15">
+        <v>-0.2868699051781128</v>
+      </c>
+      <c r="G15">
+        <v>2.807511640017053</v>
+      </c>
+      <c r="H15">
+        <v>1.767934617059892</v>
+      </c>
+      <c r="I15">
+        <v>1.767934617059892</v>
+      </c>
+      <c r="J15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="K15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="L15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="M15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="N15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="O15">
+        <v>-0.5526269587303062</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.215307658329586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -42055,13 +44203,58 @@
         <v>2033</v>
       </c>
       <c r="C16">
-        <v>0.9052267074584961</v>
+        <v>0.9052268266677856</v>
       </c>
       <c r="D16">
         <v>1.546428</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1.767273256621751</v>
+      </c>
+      <c r="F16">
+        <v>-0.3761133634143335</v>
+      </c>
+      <c r="G16">
+        <v>2.645604822736803</v>
+      </c>
+      <c r="H16">
+        <v>1.767273256621751</v>
+      </c>
+      <c r="I16">
+        <v>1.767273256621751</v>
+      </c>
+      <c r="J16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="K16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="L16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="M16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="N16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="O16">
+        <v>-0.5514596469899766</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.215813609631774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -42074,8 +44267,53 @@
       <c r="D17">
         <v>1.289655</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1.76661189618361</v>
+      </c>
+      <c r="F17">
+        <v>-0.3206699461788587</v>
+      </c>
+      <c r="G17">
+        <v>2.636232238407492</v>
+      </c>
+      <c r="H17">
+        <v>1.76661189618361</v>
+      </c>
+      <c r="I17">
+        <v>1.76661189618361</v>
+      </c>
+      <c r="J17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="K17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="L17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="M17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="N17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="O17">
+        <v>-0.5465721271393478</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.220039769044262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -42088,8 +44326,53 @@
       <c r="D18">
         <v>1.371428</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1.765950535745469</v>
+      </c>
+      <c r="F18">
+        <v>-0.3022496561731177</v>
+      </c>
+      <c r="G18">
+        <v>2.735182611388796</v>
+      </c>
+      <c r="H18">
+        <v>1.765950535745469</v>
+      </c>
+      <c r="I18">
+        <v>1.765950535745469</v>
+      </c>
+      <c r="J18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="K18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="L18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="M18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="N18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="O18">
+        <v>-0.538040768127242</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.227909767618227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -42101,6 +44384,51 @@
       </c>
       <c r="D19">
         <v>1.693103</v>
+      </c>
+      <c r="E19">
+        <v>1.765289175307327</v>
+      </c>
+      <c r="F19">
+        <v>-0.3512815771171867</v>
+      </c>
+      <c r="G19">
+        <v>2.729857154066903</v>
+      </c>
+      <c r="H19">
+        <v>1.765289175307327</v>
+      </c>
+      <c r="I19">
+        <v>1.765289175307327</v>
+      </c>
+      <c r="J19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="K19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="L19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="M19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="N19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="O19">
+        <v>-0.5260497695831712</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.239239405724156</v>
       </c>
     </row>
   </sheetData>
